--- a/formats/roster_format_download.xlsx
+++ b/formats/roster_format_download.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F75A234-8DCC-1242-AD54-60F6F3951CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79793C7E-578D-B949-811B-0173DD65F9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{6EF3D5C6-2AFF-3846-9FE0-C318AF74BB5A}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA5CDA4-92DD-C345-8C03-951E3F1F7434}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="247" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/formats/roster_format_download.xlsx
+++ b/formats/roster_format_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79793C7E-578D-B949-811B-0173DD65F9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E452439-BA50-9746-9827-00115422AEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{6EF3D5C6-2AFF-3846-9FE0-C318AF74BB5A}"/>
+    <workbookView xWindow="15920" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{6EF3D5C6-2AFF-3846-9FE0-C318AF74BB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Impact</t>
   </si>
@@ -50,15 +50,6 @@
     <t>Workcrew</t>
   </si>
   <si>
-    <t>CampName1</t>
-  </si>
-  <si>
-    <t>Bops</t>
-  </si>
-  <si>
-    <t>Geni</t>
-  </si>
-  <si>
     <t>Bolt</t>
   </si>
   <si>
@@ -68,22 +59,70 @@
     <t>Goobie</t>
   </si>
   <si>
-    <t>Gaggles</t>
-  </si>
-  <si>
-    <t>DT</t>
-  </si>
-  <si>
-    <t>Smiles</t>
-  </si>
-  <si>
-    <t>Acro</t>
-  </si>
-  <si>
-    <t>Swamp Puppy</t>
-  </si>
-  <si>
-    <t>Packs</t>
+    <t>P-Staff</t>
+  </si>
+  <si>
+    <t>Indi</t>
+  </si>
+  <si>
+    <t>Screams</t>
+  </si>
+  <si>
+    <t>Claps</t>
+  </si>
+  <si>
+    <t>Nono</t>
+  </si>
+  <si>
+    <t>Padge</t>
+  </si>
+  <si>
+    <t>Hoops</t>
+  </si>
+  <si>
+    <t>Ups</t>
+  </si>
+  <si>
+    <t>Hawma</t>
+  </si>
+  <si>
+    <t>Laddy</t>
+  </si>
+  <si>
+    <t>G-Poppy</t>
+  </si>
+  <si>
+    <t>Unicorn</t>
+  </si>
+  <si>
+    <t>Burning Bush</t>
+  </si>
+  <si>
+    <t>Bow Wow</t>
+  </si>
+  <si>
+    <t>Bonez</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>Stastro</t>
+  </si>
+  <si>
+    <t>GoGo</t>
+  </si>
+  <si>
+    <t>Nom Nom</t>
+  </si>
+  <si>
+    <t>Opps</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Tross</t>
   </si>
 </sst>
 </file>
@@ -463,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA5CDA4-92DD-C345-8C03-951E3F1F7434}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="247" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -475,7 +514,7 @@
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,49 +527,93 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/formats/roster_format_download.xlsx
+++ b/formats/roster_format_download.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fletch/Desktop/bluffs_getto/formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E452439-BA50-9746-9827-00115422AEAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB9E008-E497-B640-AD48-7CC60F0B9BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="1640" windowWidth="28040" windowHeight="17440" xr2:uid="{6EF3D5C6-2AFF-3846-9FE0-C318AF74BB5A}"/>
+    <workbookView xWindow="3420" yWindow="8180" windowWidth="28040" windowHeight="17440" xr2:uid="{6EF3D5C6-2AFF-3846-9FE0-C318AF74BB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
